--- a/Daten/Analysierte_Textdaten/Textdaten_zugeordnet/Leitfrage6.xlsx
+++ b/Daten/Analysierte_Textdaten/Textdaten_zugeordnet/Leitfrage6.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wielinthoma1\Box\Master\Masterarbeit\Abgabe\Analysierte_Textdaten\Textdaten_zugeordnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wielinthoma1\Box\Master\Masterarbeit\Abgabe\Daten\Analysierte_Textdaten\Textdaten_zugeordnet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6970356F-D84A-48AF-AE45-7D12852DB5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66FE66D1-E0C0-41D0-A795-98B982EC63F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-5355" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +41,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -67,9 +74,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,7 +419,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -419,11 +427,11 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
